--- a/results/binary/31/automl.xlsx
+++ b/results/binary/31/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.606 (0.601 Â± 0.003)</t>
+          <t>0.606 (0.601 ± 0.003)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:01:50 (00:02:25 Â± 00:00:19)</t>
+          <t>00:01:50 (00:02:25 ± 00:00:19)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:13 (00:00:14 Â± 00:00:00)</t>
+          <t>00:00:13 (00:00:14 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.787 (0.734 Â± 0.029)</t>
+          <t>0.787 (0.734 ± 0.029)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:10 Â± 00:00:01)</t>
+          <t>00:00:07 (00:00:10 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.749 (0.683 Â± 0.040)</t>
+          <t>0.749 (0.683 ± 0.040)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:25 (00:00:36 Â± 00:00:10)</t>
+          <t>00:00:25 (00:00:36 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.805 (0.737 Â± 0.029)</t>
+          <t>0.805 (0.737 ± 0.029)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:10 (00:05:18 Â± 00:00:06)</t>
+          <t>00:05:10 (00:05:18 ± 00:00:06)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.805 (0.743 Â± 0.024)</t>
+          <t>0.805 (0.743 ± 0.024)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:57 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.780 (0.716 Â± 0.037)</t>
+          <t>0.780 (0.716 ± 0.037)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.806 (0.717 Â± 0.035)</t>
+          <t>0.806 (0.717 ± 0.035)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:03:18 (00:04:55 Â± 00:00:22)</t>
+          <t>00:03:18 (00:04:55 ± 00:00:22)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.794 (0.741 Â± 0.029)</t>
+          <t>0.794 (0.741 ± 0.029)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.828 (0.745 Â± 0.030)</t>
+          <t>0.828 (0.745 ± 0.030)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:01:54 (00:04:21 Â± 00:00:33)</t>
+          <t>00:01:54 (00:04:21 ± 00:00:33)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.803 (0.734 Â± 0.032)</t>
+          <t>0.803 (0.734 ± 0.032)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:00 Â± 00:00:00)</t>
+          <t>00:05:00 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.636 (0.571 Â± 0.032)</t>
+          <t>0.636 (0.571 ± 0.032)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:31 (00:02:57 Â± 00:00:13)</t>
+          <t>00:02:31 (00:02:57 ± 00:00:13)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.775 (0.714 Â± 0.027)</t>
+          <t>0.775 (0.714 ± 0.027)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:05 Â± 00:00:03)</t>
+          <t>00:00:02 (00:00:05 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.791 (0.736 Â± 0.030)</t>
+          <t>0.791 (0.736 ± 0.030)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:26 Â± 00:00:02)</t>
+          <t>00:00:23 (00:00:26 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.789 (0.729 Â± 0.039)</t>
+          <t>0.789 (0.729 ± 0.039)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:56 (00:03:06 Â± 00:01:44)</t>
+          <t>00:00:56 (00:03:06 ± 00:01:44)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.810 (0.748 Â± 0.029)</t>
+          <t>0.810 (0.748 ± 0.029)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.813 (0.748 Â± 0.026)</t>
+          <t>0.813 (0.748 ± 0.026)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:00:31 (00:02:07 Â± 00:00:58)</t>
+          <t>00:00:31 (00:02:07 ± 00:00:58)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
